--- a/files/split_test_1_one_sheet_split.xlsx
+++ b/files/split_test_1_one_sheet_split.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -532,7 +532,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -564,7 +564,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -588,7 +588,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -620,7 +620,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -644,7 +644,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -676,7 +676,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -700,7 +700,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -740,7 +740,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -764,7 +764,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -796,7 +796,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -820,7 +820,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -902,7 +902,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -926,7 +926,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -958,7 +958,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -982,7 +982,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1014,7 +1014,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1038,7 +1038,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1070,7 +1070,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1094,7 +1094,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1158,7 +1158,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1190,7 +1190,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1214,7 +1214,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H28" t="n">

--- a/files/split_test_1_one_sheet_split.xlsx
+++ b/files/split_test_1_one_sheet_split.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AllTablesWithGaps" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AllTablesWithGaps" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>table_header_descriptor</t>
+          <t>table_header_position</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -493,12 +493,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12W/14W/16W/18W</t>
+          <t>12W/14W/
+16W/18W</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1200lm/1400lm/1600lm/1800lm</t>
+          <t>1200lm/1400lm/
+1600lm/1800lm</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -508,7 +510,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -532,7 +534,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -564,7 +566,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -588,7 +590,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -609,18 +611,20 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12W/14W/16W/18W</t>
+          <t>12W/14W/
+16W/18W</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1200lm/1400lm/1600lm/1800lm</t>
+          <t>1200lm/1400lm/
+1600lm/1800lm</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -644,7 +648,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -676,7 +680,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -700,7 +704,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -725,12 +729,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12W/14W/16W/18W</t>
+          <t>12W/14W/
+16W/18W</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1200lm/1400lm/1600lm/1800lm</t>
+          <t>1200lm/1400lm/
+1600lm/1800lm</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -740,7 +746,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -764,7 +770,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -796,7 +802,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -820,7 +826,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -860,7 +866,7 @@
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>table_header_descriptor</t>
+          <t>table_header_position</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
@@ -887,12 +893,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12W/14W/16W/18W</t>
+          <t>12W/14W/
+16W/18W</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1200lm/1400lm/1600lm/1800lm</t>
+          <t>1200lm/1400lm/
+1600lm/1800lm</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -902,7 +910,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -926,7 +934,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -958,7 +966,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -982,7 +990,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1003,18 +1011,20 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12W/14W/16W/18W</t>
+          <t>12W/14W/
+16W/18W</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1200lm/1400lm/1600lm/1800lm</t>
+          <t>1200lm/1400lm/
+1600lm/1800lm</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1038,7 +1048,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1070,7 +1080,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1094,7 +1104,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1119,12 +1129,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12W/14W/16W/18W</t>
+          <t>12W/14W/
+16W/18W</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1200lm/1400lm/1600lm/1800lm</t>
+          <t>1200lm/1400lm/
+1600lm/1800lm</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1134,7 +1146,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1153,12 +1165,20 @@
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16W</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1600lm</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1190,7 +1210,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1214,7 +1234,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H28" t="n">

--- a/files/split_test_1_one_sheet_split.xlsx
+++ b/files/split_test_1_one_sheet_split.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AllTablesWithGaps" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AllTablesWithGaps" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Part Number</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Dimensions</t>
+          <t>Od Mm</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Max Pressure Bar</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Lumens</t>
+          <t>Bend Radius Mm</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Colour Temp.</t>
+          <t>Burst Pressure Bar</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,39 +478,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NET-33-06-20</t>
+          <t>100R1AT-20-40</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>1.1/4”</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ø325 x 110mm</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12W/14W/
-16W/18W</t>
+          <t>63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1200lm/1400lm/
-1600lm/1800lm</t>
+          <t>420</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3000K/4000K/5500K</t>
+          <t>250</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
+          <t>1 Wire, 40 Metre Coils - Can be found on the middle right position of the page</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -520,21 +518,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NET-33-06-30</t>
+          <t>100R1AT-24-40</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>1.1/2”</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
+          <t>1 Wire, 40 Metre Coils - Can be found on the middle right position of the page</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -544,143 +558,119 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NET-33-06-24</t>
+          <t>100R1AT-32-40</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Microwave Sensor</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>2”</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>65.9</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16W</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1600lm</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
+          <t>1 Wire, 40 Metre Coils - Can be found on the middle right position of the page</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>NET-33-06-34</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Microwave Sensor Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>NET-33-06-70</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Photocell</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12W/14W/
-16W/18W</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1200lm/1400lm/
-1600lm/1800lm</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NET-33-06-71</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Photocell Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>0303</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Od Mm</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Max Pressure Bar</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>Bend Radius Mm</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>Burst Pressure Bar</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>table_header_position</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>page_number</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NET-33-06-48</t>
+          <t>100R1AT-03-100</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Photocell Microwave Sensor</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>3/16”</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12.5</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16W</t>
+          <t>250</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1600lm</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
+          <t>1 Wire, 100 Metre Coils - Can be found on the middle left position of the page</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -690,21 +680,37 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NET-33-06-49</t>
+          <t>100R1AT-04-100</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Photocell Microwave Sensor Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+          <t>1/4”</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14.1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
+          <t>1 Wire, 100 Metre Coils - Can be found on the middle left position of the page</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -714,39 +720,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NET-33-06-40</t>
+          <t>100R1AT-05-100</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>5/16”</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ø325 x 110mm</t>
+          <t>15.7</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12W/14W/
-16W/18W</t>
+          <t>215</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1200lm/1400lm/
-1600lm/1800lm</t>
+          <t>115</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4000K</t>
+          <t>850</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
+          <t>1 Wire, 100 Metre Coils - Can be found on the middle left position of the page</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -756,21 +760,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NET-33-06-42</t>
+          <t>100R1AT-06-100</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+          <t>3/8”</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>18.1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
+          <t>1 Wire, 100 Metre Coils - Can be found on the middle left position of the page</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -780,29 +800,37 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NET-33-06-44</t>
+          <t>100R1AT-08-100</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Microwave Sensor</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>1/2”</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21.4</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16W</t>
+          <t>160</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1600lm</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
+          <t>1 Wire, 100 Metre Coils - Can be found on the middle left position of the page</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -812,433 +840,1083 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NET-33-06-46</t>
+          <t>100R1AT-10-100</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Microwave Sensor Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+          <t>5/8”</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>24.5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
+          <t>1 Wire, 100 Metre Coils - Can be found on the middle left position of the page</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>100R1AT-12-100</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3/4”</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>28.5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1 Wire, 100 Metre Coils - Can be found on the middle left position of the page</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>100R1AT-16-100</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1”</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>36.6</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1 Wire, 100 Metre Coils - Can be found on the middle left position of the page</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>Dimensions</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t>Lumens</t>
-        </is>
-      </c>
-      <c r="F16" s="1" t="inlineStr">
-        <is>
-          <t>Colour Temp.</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Size Mm</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Inch</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>Working Pressure Bar</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>Psi</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>Burst Pressure Bar</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>Bend Radius Inch</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>Mm</t>
+        </is>
+      </c>
+      <c r="I18" s="1" t="inlineStr">
+        <is>
+          <t>Swaging Dimensions Ft3 Type Ferrule</t>
+        </is>
+      </c>
+      <c r="J18" s="1" t="inlineStr">
+        <is>
+          <t>Swage Dia. In Mm</t>
+        </is>
+      </c>
+      <c r="K18" s="1" t="inlineStr">
+        <is>
+          <t>Tail Id Top Tolerance Mm</t>
+        </is>
+      </c>
+      <c r="L18" s="1" t="inlineStr">
+        <is>
+          <t>Tail Id Bottom Tolerance Mm</t>
+        </is>
+      </c>
+      <c r="M18" s="1" t="inlineStr">
+        <is>
+          <t>Swaged No Go Mm</t>
+        </is>
+      </c>
+      <c r="N18" s="1" t="inlineStr">
+        <is>
+          <t>Swaged Go Mm</t>
+        </is>
+      </c>
+      <c r="O18" s="1" t="inlineStr">
         <is>
           <t>table_header_position</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
+      <c r="P18" s="1" t="inlineStr">
         <is>
           <t>page_number</t>
         </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>NET-33-06-12</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Ø261 x 23.6mm</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12W/14W/
-16W/18W</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1200lm/1400lm/
-1600lm/1800lm</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3000K/4000K/5500K</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>"Part Number - Top right of the page"</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>NET-33-06-32</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>"Part Number - Top right of the page"</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NET-33-06-16</t>
+          <t>100R1AT-03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Microwave Sensor</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3/16</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>16W</t>
+          <t>250</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1600lm</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>14503</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>"Part Number - Top right of the page"</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>FT3-12-03CF</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Technical Data - Can be found on the bottom position of the page</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NET-33-06-36</t>
+          <t>100R1AT-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Microwave Sensor Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>13050</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>"Part Number - Top right of the page"</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>FT3-12-04CF</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>17.8</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Technical Data - Can be found on the bottom position of the page</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NET-33-06-72</t>
+          <t>100R1AT-05</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Photocell</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5/16</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12W/14W/
-16W/18W</t>
+          <t>215</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1200lm/1400lm/
-1600lm/1800lm</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>12325</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>"Part Number - Top right of the page"</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>FT3-12-05CF</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>20.5</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Technical Data - Can be found on the bottom position of the page</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NET-33-06-73</t>
+          <t>100R1AT-06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Photocell Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10440</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>"Part Number - Top right of the page"</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>FT3-12-06CF</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Technical Data - Can be found on the bottom position of the page</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NET-33-06-78</t>
+          <t>100R1AT-08</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Photocell Microwave Sensor</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>12.5</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>16W</t>
+          <t>160</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1600lm</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>9280</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>"Part Number - Top right of the page"</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>FT3-12-08CF</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Technical Data - Can be found on the bottom position of the page</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NET-33-06-79</t>
+          <t>100R1AT-10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Photocell Microwave Sensor Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5/8</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7540</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>"Part Number - Top right of the page"</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>FT3-12-10CF</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>28.7</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Technical Data - Can be found on the bottom position of the page</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NET-33-06-03</t>
+          <t>100R1AT-12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ø261 x 23.6mm</t>
+          <t>3/4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12W/14W/
-16W/18W</t>
+          <t>105</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1200lm/1400lm/
-1600lm/1800lm</t>
+          <t>6090</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4000K</t>
+          <t>420</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>"Part Number - Top right of the page"</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>FT3-12-12CF</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>31.3</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Technical Data - Can be found on the bottom position of the page</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NET-33-06-05</t>
+          <t>100R1AT-16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16W</t>
+          <t>88</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1600lm</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>"Part Number - Top right of the page"</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>FT3-12-16CF</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>18.29</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>18.29</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Technical Data - Can be found on the bottom position of the page</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NET-33-06-07</t>
+          <t>100R1AT-20</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Microwave Sensor</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>31.5</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1.1/4</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>16W</t>
+          <t>63</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1600lm</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>3625</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>"Part Number - Top right of the page"</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>FT3-12-20CF</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>25.4</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>23.8</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Technical Data - Can be found on the bottom position of the page</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NET-33-06-09</t>
+          <t>100R1AT-24</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Microwave Sensor Emergency/Self Test</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1.1/2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>"Part Number - Top right of the page"</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>FT3-12-24CF</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>31.4</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>30.6</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>30.6</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>29.8</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Technical Data - Can be found on the bottom position of the page</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>100R1AT-32</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2320</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>24.8</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>FT3-12-32CF</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>41.4</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>40.6</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>40.6</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>30.8</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Technical Data - Can be found on the bottom position of the page</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
